--- a/SeleniumTests.CoreHR/TestDataAccess/Data.xlsx
+++ b/SeleniumTests.CoreHR/TestDataAccess/Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Runmode</t>
   </si>
@@ -26,15 +26,9 @@
     <t>TCID</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>LegalEmployer</t>
   </si>
   <si>
-    <t>LastName</t>
-  </si>
-  <si>
     <t>AddressLine1</t>
   </si>
   <si>
@@ -47,9 +41,6 @@
     <t>US1 Legal Entity</t>
   </si>
   <si>
-    <t>Test610</t>
-  </si>
-  <si>
     <t>Street1</t>
   </si>
   <si>
@@ -59,22 +50,10 @@
     <t>HireAnEmployee</t>
   </si>
   <si>
-    <t>HireAnEmployee_Test1</t>
-  </si>
-  <si>
-    <t>HireAnEmployee_Test2</t>
-  </si>
-  <si>
-    <t>HireAnEmployee_Test3</t>
-  </si>
-  <si>
     <t>Browser</t>
   </si>
   <si>
     <t>Chrome</t>
-  </si>
-  <si>
-    <t>Test703</t>
   </si>
 </sst>
 </file>
@@ -171,10 +150,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,35 +513,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -572,226 +527,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44278F6C-0A38-455D-9FC7-ED4C017EA6BD}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="23" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="2" width="23" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="3">
+        <v>10010</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5">
-        <v>10010</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5">
-        <v>10010</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="5">
-        <v>10010</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="5">
-        <v>10010</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
